--- a/sg02/Assets/Resources/Config/Excel/Force.xlsx
+++ b/sg02/Assets/Resources/Config/Excel/Force.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
   <si>
     <t>朴刀</t>
   </si>
@@ -113,6 +113,71 @@
   </si>
   <si>
     <t>Force13</t>
+  </si>
+  <si>
+    <t>ShortName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字缩写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弩</t>
+  </si>
+  <si>
+    <t>藤</t>
+  </si>
+  <si>
+    <t>贼</t>
+  </si>
+  <si>
+    <t>弩兵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -542,117 +607,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
+      <c r="C3" t="s">
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -690,615 +761,657 @@
       <c r="O3" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="P3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>-42</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>-58</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>44</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>-47</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>47</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>21</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>14</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>-51</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>-31</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <v>22</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>-8</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P4" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1">
         <v>42</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>-12</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>-58</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>-23</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>-53</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>60</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>49</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>27</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>66</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>44</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>-52</v>
       </c>
-      <c r="O5" s="1">
+      <c r="P5" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="1">
         <v>58</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>12</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>-66</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>22</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>-64</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>63</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>53</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>-14</v>
-      </c>
-      <c r="L6" s="1">
-        <v>68</v>
       </c>
       <c r="M6" s="1">
         <v>68</v>
       </c>
       <c r="N6" s="1">
+        <v>68</v>
+      </c>
+      <c r="O6" s="1">
         <v>-18</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <v>-43</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1">
         <v>-44</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>58</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>66</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>54</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>8</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>-56</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>-36</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>47</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>-54</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <v>28</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>32</v>
       </c>
-      <c r="O7" s="1">
+      <c r="P7" s="1">
         <v>-29</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="1">
         <v>47</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>23</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>-22</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>-54</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>0</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>-48</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>-26</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>36</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>13</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <v>65</v>
       </c>
-      <c r="M8" s="1">
+      <c r="N8" s="1">
         <v>37</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>-45</v>
       </c>
-      <c r="O8" s="1">
+      <c r="P8" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1">
         <v>-47</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>53</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>64</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>-8</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>48</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>0</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>-55</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>-39</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <v>39</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>-67</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <v>-24</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>56</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <v>-32</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="1">
         <v>-21</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>-60</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>-63</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>56</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>26</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>55</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>0</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>8</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
         <v>42</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <v>16</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10" s="1">
         <v>33</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1">
         <v>-18</v>
       </c>
-      <c r="O10" s="1">
+      <c r="P10" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>128</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1">
         <v>-14</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>-49</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>-53</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>36</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>-36</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>39</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>-8</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>0</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <v>-41</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M11" s="1">
         <v>17</v>
       </c>
-      <c r="M11" s="1">
+      <c r="N11" s="1">
         <v>-62</v>
       </c>
-      <c r="N11" s="1">
+      <c r="O11" s="1">
         <v>-10</v>
       </c>
-      <c r="O11" s="1">
+      <c r="P11" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>256</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="1">
         <v>51</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>-27</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>14</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>-47</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>-13</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>-39</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>-42</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <v>41</v>
       </c>
-      <c r="K12" s="1">
+      <c r="L12" s="1">
         <v>0</v>
       </c>
-      <c r="L12" s="1">
+      <c r="M12" s="1">
         <v>64</v>
       </c>
-      <c r="M12" s="1">
+      <c r="N12" s="1">
         <v>41</v>
       </c>
-      <c r="N12" s="1">
+      <c r="O12" s="1">
         <v>-28</v>
       </c>
-      <c r="O12" s="1">
+      <c r="P12" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>512</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="1">
         <v>31</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>-66</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>-68</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>54</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>-65</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>67</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>-16</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <v>-17</v>
       </c>
-      <c r="K13" s="1">
+      <c r="L13" s="1">
         <v>-64</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="1">
         <v>0</v>
       </c>
-      <c r="M13" s="1">
+      <c r="N13" s="1">
         <v>21</v>
       </c>
-      <c r="N13" s="1">
+      <c r="O13" s="1">
         <v>8</v>
       </c>
-      <c r="O13" s="1">
+      <c r="P13" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>1024</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="1">
         <v>-22</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>-44</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>-68</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>-28</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>-37</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>24</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>-33</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <v>62</v>
       </c>
-      <c r="K14" s="1">
+      <c r="L14" s="1">
         <v>-41</v>
       </c>
-      <c r="L14" s="1">
+      <c r="M14" s="1">
         <v>-21</v>
       </c>
-      <c r="M14" s="1">
+      <c r="N14" s="1">
         <v>0</v>
       </c>
-      <c r="N14" s="1">
+      <c r="O14" s="1">
         <v>-24</v>
       </c>
-      <c r="O14" s="1">
+      <c r="P14" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>2048</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="1">
+        <v>45</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="1">
         <v>8</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>52</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>18</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>-32</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>45</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>-56</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <v>18</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <v>10</v>
       </c>
-      <c r="K15" s="1">
+      <c r="L15" s="1">
         <v>28</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M15" s="1">
         <v>-8</v>
       </c>
-      <c r="M15" s="1">
+      <c r="N15" s="1">
         <v>24</v>
       </c>
-      <c r="N15" s="1">
+      <c r="O15" s="1">
         <v>0</v>
       </c>
-      <c r="O15" s="1">
+      <c r="P15" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>4096</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="1">
         <v>-10</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>-39</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>43</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>29</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>-32</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>32</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <v>-6</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K16" s="1">
         <v>-30</v>
       </c>
-      <c r="K16" s="1">
+      <c r="L16" s="1">
         <v>-36</v>
       </c>
-      <c r="L16" s="1">
+      <c r="M16" s="1">
         <v>-26</v>
       </c>
-      <c r="M16" s="1">
+      <c r="N16" s="1">
         <v>-56</v>
       </c>
-      <c r="N16" s="1">
+      <c r="O16" s="1">
         <v>-12</v>
       </c>
-      <c r="O16" s="1">
+      <c r="P16" s="1">
         <v>0</v>
       </c>
     </row>
